--- a/submit/Verilator中Warning无法清理说明.xlsx
+++ b/submit/Verilator中Warning无法清理说明.xlsx
@@ -496,7 +496,7 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -921,7 +921,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -944,7 +944,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.984375" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/submit/Verilator中Warning无法清理说明.xlsx
+++ b/submit/Verilator中Warning无法清理说明.xlsx
@@ -174,31 +174,31 @@
     <t xml:space="preserve">ysyx_210611.v:3589:44: Signal is not used: 'mem_rw_resp'</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2796:35: Bits of signal are not used: 'itrp_info'[11:8,6:0]</t>
+    <t xml:space="preserve">ysyx_210611.v:2782:35: Bits of signal are not used: 'itrp_info'[11:8,6:0]</t>
   </si>
   <si>
     <t xml:space="preserve">仅实现了定时器中断，其他位预留给其他中断</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2828:63: Bits of signal are not used: 'mie_rd_data'[63:12,10:8,6:4,2:0]</t>
+    <t xml:space="preserve">ysyx_210611.v:2814:63: Bits of signal are not used: 'mie_rd_data'[63:12,10:8,6:4,2:0]</t>
   </si>
   <si>
     <t xml:space="preserve">mie里与机器模式无关的信号未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2828:76: Bits of signal are not used: 'mip_rd_data'[63:12,10:8,6:4,2:0]</t>
+    <t xml:space="preserve">ysyx_210611.v:2814:76: Bits of signal are not used: 'mip_rd_data'[63:12,10:8,6:4,2:0]</t>
   </si>
   <si>
     <t xml:space="preserve">mip里与机器模式无关的信号未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2961:16: Bits of signal are not used: 'mem_reg_wr_ctrl'[2]</t>
+    <t xml:space="preserve">ysyx_210611.v:2947:16: Bits of signal are not used: 'mem_reg_wr_ctrl'[2]</t>
   </si>
   <si>
     <t xml:space="preserve">该信号是mem传递给wb的通用寄存器写入控制信号，也复用作为mem传递给ex的前递控制信号，第2位在前递中未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2961:33: Bits of signal are not used: 'wb_reg_wr_ctrl'[2]</t>
+    <t xml:space="preserve">ysyx_210611.v:2947:33: Bits of signal are not used: 'wb_reg_wr_ctrl'[2]</t>
   </si>
   <si>
     <t xml:space="preserve">该信号是wb的通用寄存器写入控制信号，也复用作为wb传递给ex的前递控制信号，第2位在前递中未用</t>
@@ -496,8 +496,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/submit/Verilator中Warning无法清理说明.xlsx
+++ b/submit/Verilator中Warning无法清理说明.xlsx
@@ -126,79 +126,79 @@
     <t xml:space="preserve">ysyx_210611.v:194:39: Signal is not used: 'io_slave_rready'</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:1295:44: Bits of signal are not used: 'rw_addr_i'[63:32]</t>
+    <t xml:space="preserve">ysyx_210611.v:1287:44: Bits of signal are not used: 'rw_addr_i'[63:32]</t>
   </si>
   <si>
     <t xml:space="preserve">AXI地址截取为32位，因此高位未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:1317:44: Signal is not used: 'axi_b_id_i'</t>
+    <t xml:space="preserve">ysyx_210611.v:1309:44: Signal is not used: 'axi_b_id_i'</t>
   </si>
   <si>
     <t xml:space="preserve">省去了AXI的部分功能，此信号未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:1332:44: Signal is not used: 'axi_r_id_i'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ysyx_210611.v:1413:14: Bits of signal are not used: 'addr_end'[2:0]</t>
+    <t xml:space="preserve">ysyx_210611.v:1324:44: Signal is not used: 'axi_r_id_i'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ysyx_210611.v:1401:14: Bits of signal are not used: 'addr_end'[2:0]</t>
   </si>
   <si>
     <t xml:space="preserve">来自axi_rw.v的代码，没有完全理解，因此不敢作改动</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2079:30: Bits of signal are not used: 'mstatus_wr_data'[63]</t>
+    <t xml:space="preserve">ysyx_210611.v:2065:30: Bits of signal are not used: 'mstatus_wr_data'[63]</t>
   </si>
   <si>
     <t xml:space="preserve">mstatus此位只读，故此位的写入信号未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:3046:30: Bits of signal are not used: 'bj_ctrl_bus'[65:2]</t>
+    <t xml:space="preserve">ysyx_210611.v:3028:30: Bits of signal are not used: 'bj_ctrl_bus'[65:2]</t>
   </si>
   <si>
     <t xml:space="preserve">该信号由ex传输给if与id，信号的一部分只在if中使用，因此在id中产生未用警告。如果清理这个警告，代码较为繁琐</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:3444:37: Bits of signal are not used: 'if_axi_data_read'[63:32]</t>
+    <t xml:space="preserve">ysyx_210611.v:3426:37: Bits of signal are not used: 'if_axi_data_read'[63:32]</t>
   </si>
   <si>
     <t xml:space="preserve">这是取指，当然只需要32位</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:3447:39: Signal is not used: 'if_axi_resp'</t>
+    <t xml:space="preserve">ysyx_210611.v:3429:39: Signal is not used: 'if_axi_resp'</t>
   </si>
   <si>
     <t xml:space="preserve">未实现访存异常处理，因此不使用该信号</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:3589:44: Signal is not used: 'mem_rw_resp'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ysyx_210611.v:2782:35: Bits of signal are not used: 'itrp_info'[11:8,6:0]</t>
+    <t xml:space="preserve">ysyx_210611.v:3566:44: Signal is not used: 'mem_rw_resp'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ysyx_210611.v:2778:35: Bits of signal are not used: 'itrp_info'[11:8,6:0]</t>
   </si>
   <si>
     <t xml:space="preserve">仅实现了定时器中断，其他位预留给其他中断</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2814:63: Bits of signal are not used: 'mie_rd_data'[63:12,10:8,6:4,2:0]</t>
+    <t xml:space="preserve">ysyx_210611.v:2810:63: Bits of signal are not used: 'mie_rd_data'[63:12,10:8,6:4,2:0]</t>
   </si>
   <si>
     <t xml:space="preserve">mie里与机器模式无关的信号未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2814:76: Bits of signal are not used: 'mip_rd_data'[63:12,10:8,6:4,2:0]</t>
+    <t xml:space="preserve">ysyx_210611.v:2810:76: Bits of signal are not used: 'mip_rd_data'[63:12,10:8,6:4,2:0]</t>
   </si>
   <si>
     <t xml:space="preserve">mip里与机器模式无关的信号未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2947:16: Bits of signal are not used: 'mem_reg_wr_ctrl'[2]</t>
+    <t xml:space="preserve">ysyx_210611.v:2943:16: Bits of signal are not used: 'mem_reg_wr_ctrl'[2]</t>
   </si>
   <si>
     <t xml:space="preserve">该信号是mem传递给wb的通用寄存器写入控制信号，也复用作为mem传递给ex的前递控制信号，第2位在前递中未用</t>
   </si>
   <si>
-    <t xml:space="preserve">ysyx_210611.v:2947:33: Bits of signal are not used: 'wb_reg_wr_ctrl'[2]</t>
+    <t xml:space="preserve">ysyx_210611.v:2943:33: Bits of signal are not used: 'wb_reg_wr_ctrl'[2]</t>
   </si>
   <si>
     <t xml:space="preserve">该信号是wb的通用寄存器写入控制信号，也复用作为wb传递给ex的前递控制信号，第2位在前递中未用</t>
@@ -496,8 +496,8 @@
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
